--- a/SPARC-.Wishlist.xlsx
+++ b/SPARC-.Wishlist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\GitHub\Documents-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\GitHub\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>SPARC Wishlist</t>
   </si>
@@ -50,9 +50,6 @@
     <t>ESD wrist strap</t>
   </si>
   <si>
-    <t>Oscilloscope</t>
-  </si>
-  <si>
     <t>Smaller Vice Grips</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>General SPARC</t>
   </si>
   <si>
-    <t>LED Light Strip</t>
-  </si>
-  <si>
     <t>Power supply</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>Hakko Soldering Iron</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/products/2439</t>
-  </si>
-  <si>
     <t>https://www.adafruit.com/products/1311</t>
   </si>
   <si>
@@ -140,19 +131,34 @@
     <t>Large Alligator Clips</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/products/798</t>
-  </si>
-  <si>
-    <t>Party Light System</t>
-  </si>
-  <si>
-    <t>12 VDC Power Supply</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/products/368</t>
-  </si>
-  <si>
-    <t>Power adapter</t>
+    <t>Long Term Dream Items</t>
+  </si>
+  <si>
+    <t>Full Digital Oscilloscope</t>
+  </si>
+  <si>
+    <t>Lowes</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>Duct Tape</t>
+  </si>
+  <si>
+    <t>Laser Cutter</t>
+  </si>
+  <si>
+    <t>Drill Press</t>
+  </si>
+  <si>
+    <t>Project Shelf</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 2</t>
+  </si>
+  <si>
+    <t>Solder Station Brush</t>
   </si>
 </sst>
 </file>
@@ -502,15 +508,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" customWidth="1"/>
     <col min="5" max="5" width="35.77734375" customWidth="1"/>
   </cols>
@@ -546,7 +553,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -554,23 +561,23 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -578,31 +585,40 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -610,63 +626,81 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
         <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -674,30 +708,30 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>19.95</v>
+        <v>44.95</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>99.99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
         <v>25</v>
-      </c>
-      <c r="B20">
-        <v>44.95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
@@ -705,19 +739,19 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>109.95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
         <v>29</v>
-      </c>
-      <c r="B21">
-        <v>99.99</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -725,13 +759,13 @@
         <v>32</v>
       </c>
       <c r="B22">
-        <v>109.95</v>
+        <v>15.95</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
         <v>31</v>
@@ -739,75 +773,85 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23">
-        <v>15.95</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>4.95</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="B25">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>42</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
+      <c r="D31" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SPARC-.Wishlist.xlsx
+++ b/SPARC-.Wishlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>SPARC Wishlist</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Meterstick</t>
   </si>
   <si>
-    <t>AWG/Gauge Meassurer</t>
-  </si>
-  <si>
     <t>Outlet at Center Table</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>General SPARC</t>
   </si>
   <si>
-    <t>Power supply</t>
-  </si>
-  <si>
     <t>Third Hand</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>Full Digital Oscilloscope</t>
   </si>
   <si>
-    <t>Lowes</t>
-  </si>
-  <si>
     <t>Walmart</t>
   </si>
   <si>
@@ -155,17 +146,35 @@
     <t>Project Shelf</t>
   </si>
   <si>
-    <t>Raspberry Pi 2</t>
-  </si>
-  <si>
     <t>Solder Station Brush</t>
+  </si>
+  <si>
+    <t>Battery for Calipers (LR44)</t>
+  </si>
+  <si>
+    <t>Digital Power supply</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 3</t>
+  </si>
+  <si>
+    <t>Walmart?</t>
+  </si>
+  <si>
+    <t>Lowes?</t>
+  </si>
+  <si>
+    <t>AWG/Gauge Measurer</t>
+  </si>
+  <si>
+    <t>Lowes/Walmart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +194,14 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,17 +236,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -508,16 +528,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" customWidth="1"/>
     <col min="5" max="5" width="35.77734375" customWidth="1"/>
   </cols>
@@ -553,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -561,31 +581,40 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -593,10 +622,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -604,10 +633,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -615,188 +644,191 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
         <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>44.95</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>99.99</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>109.95</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>15.95</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>4.95</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -804,12 +836,12 @@
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -818,34 +850,42 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>42</v>
       </c>
-      <c r="D31" t="s">
-        <v>21</v>
+      <c r="D32" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -853,7 +893,10 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A27:E27"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E24" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/SPARC-.Wishlist.xlsx
+++ b/SPARC-.Wishlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>SPARC Wishlist</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Project/Application</t>
-  </si>
-  <si>
-    <t>Antistatic Mat</t>
   </si>
   <si>
     <t>ESD wrist strap</t>
@@ -243,10 +240,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -528,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,13 +540,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -573,15 +570,18 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -589,32 +589,32 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -622,10 +622,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -633,40 +633,40 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -674,10 +674,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -685,10 +685,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -696,10 +696,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -707,10 +707,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -718,142 +718,139 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>44.95</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>44.95</v>
+        <v>99.99</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
         <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>109.95</v>
+      </c>
+      <c r="C20" t="s">
         <v>25</v>
       </c>
-      <c r="B20">
-        <v>99.99</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
         <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>15.95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
         <v>28</v>
-      </c>
-      <c r="B21">
-        <v>109.95</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22">
-        <v>15.95</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>4.95</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24">
-        <v>4.95</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -861,7 +858,7 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -869,32 +866,24 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E24" r:id="rId1"/>
+    <hyperlink ref="E23" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/SPARC-.Wishlist.xlsx
+++ b/SPARC-.Wishlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>SPARC Wishlist</t>
   </si>
@@ -56,27 +56,9 @@
     <t>Button batteres (for scale)</t>
   </si>
   <si>
-    <t>Stapler</t>
-  </si>
-  <si>
-    <t>Meterstick</t>
-  </si>
-  <si>
-    <t>Outlet at Center Table</t>
-  </si>
-  <si>
     <t>Epoxy</t>
   </si>
   <si>
-    <t>Gorilla Glue</t>
-  </si>
-  <si>
-    <t>Metal File</t>
-  </si>
-  <si>
-    <t>Paper Towels</t>
-  </si>
-  <si>
     <t>Plastic Tweezers</t>
   </si>
   <si>
@@ -128,24 +110,12 @@
     <t>Full Digital Oscilloscope</t>
   </si>
   <si>
-    <t>Walmart</t>
-  </si>
-  <si>
-    <t>Duct Tape</t>
-  </si>
-  <si>
-    <t>Laser Cutter</t>
-  </si>
-  <si>
     <t>Drill Press</t>
   </si>
   <si>
     <t>Project Shelf</t>
   </si>
   <si>
-    <t>Solder Station Brush</t>
-  </si>
-  <si>
     <t>Battery for Calipers (LR44)</t>
   </si>
   <si>
@@ -165,12 +135,39 @@
   </si>
   <si>
     <t>Lowes/Walmart</t>
+  </si>
+  <si>
+    <t>Laser Cutter/CNC</t>
+  </si>
+  <si>
+    <t>OLO 3D Printer</t>
+  </si>
+  <si>
+    <t>Kickstarter</t>
+  </si>
+  <si>
+    <t>3D Printer</t>
+  </si>
+  <si>
+    <t>https://www.kickstarter.com/projects/olo3d/olo-the-first-ever-smartphone-3d-printer/pledge/new?clicked_reward=false</t>
+  </si>
+  <si>
+    <t>Vise</t>
+  </si>
+  <si>
+    <t>http://www.harborfreight.com/hand-tools/vises-anvils/5-in-swivel-vise-with-anvil-61551.html</t>
+  </si>
+  <si>
+    <t>Harbor Freight</t>
+  </si>
+  <si>
+    <t>http://www.harborfreight.com/8-in-5-speed-bench-drill-press-62520.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -578,10 +575,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -589,21 +586,21 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -611,281 +608,234 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>44.95</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>99.99</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>109.95</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>15.95</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>4.95</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>59.99</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>69.989999999999995</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>44.95</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>99.99</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20">
-        <v>109.95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>15.95</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>4.95</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A21:E21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1"/>
+    <hyperlink ref="E15" r:id="rId1"/>
+    <hyperlink ref="E17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/SPARC-.Wishlist.xlsx
+++ b/SPARC-.Wishlist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\GitHub\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\06 GitHub\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>SPARC Wishlist</t>
   </si>
@@ -68,30 +68,12 @@
     <t>General SPARC</t>
   </si>
   <si>
-    <t>Third Hand</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/products/2474</t>
-  </si>
-  <si>
     <t>Solder Station</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/products/2452</t>
-  </si>
-  <si>
-    <t>Circuit Board Holder</t>
-  </si>
-  <si>
     <t>Adafruit</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/products/1204</t>
-  </si>
-  <si>
-    <t>Hakko Soldering Iron</t>
-  </si>
-  <si>
     <t>https://www.adafruit.com/products/1311</t>
   </si>
   <si>
@@ -140,18 +122,6 @@
     <t>Laser Cutter/CNC</t>
   </si>
   <si>
-    <t>OLO 3D Printer</t>
-  </si>
-  <si>
-    <t>Kickstarter</t>
-  </si>
-  <si>
-    <t>3D Printer</t>
-  </si>
-  <si>
-    <t>https://www.kickstarter.com/projects/olo3d/olo-the-first-ever-smartphone-3d-printer/pledge/new?clicked_reward=false</t>
-  </si>
-  <si>
     <t>Vise</t>
   </si>
   <si>
@@ -162,6 +132,12 @@
   </si>
   <si>
     <t>http://www.harborfreight.com/8-in-5-speed-bench-drill-press-62520.html</t>
+  </si>
+  <si>
+    <t>X-Acto Knife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -335,6 +311,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -370,6 +363,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -522,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -586,7 +596,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -594,10 +604,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -608,7 +618,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -616,7 +626,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -627,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -643,199 +653,146 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>15.95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>44.95</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>4.95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B12">
-        <v>99.99</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>109.95</v>
+        <v>59.99</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>15.95</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15">
-        <v>4.95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16">
-        <v>59.99</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>69.989999999999995</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="18" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19">
-        <v>99.99</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1"/>
-    <hyperlink ref="E17" r:id="rId2"/>
+    <hyperlink ref="E12" r:id="rId1"/>
+    <hyperlink ref="E14" r:id="rId2"/>
+    <hyperlink ref="E13" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/SPARC-.Wishlist.xlsx
+++ b/SPARC-.Wishlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20232" windowHeight="9324"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20235" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>SPARC Wishlist</t>
   </si>
@@ -47,12 +47,6 @@
     <t>ESD wrist strap</t>
   </si>
   <si>
-    <t>Smaller Vice Grips</t>
-  </si>
-  <si>
-    <t>Magnifying Lamp</t>
-  </si>
-  <si>
     <t>Button batteres (for scale)</t>
   </si>
   <si>
@@ -68,18 +62,9 @@
     <t>General SPARC</t>
   </si>
   <si>
-    <t>Solder Station</t>
-  </si>
-  <si>
     <t>Adafruit</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/products/1311</t>
-  </si>
-  <si>
-    <t>Hook-up Wire</t>
-  </si>
-  <si>
     <t>https://www.adafruit.com/products/321</t>
   </si>
   <si>
@@ -89,30 +74,15 @@
     <t>Long Term Dream Items</t>
   </si>
   <si>
-    <t>Full Digital Oscilloscope</t>
-  </si>
-  <si>
     <t>Drill Press</t>
   </si>
   <si>
-    <t>Project Shelf</t>
-  </si>
-  <si>
     <t>Battery for Calipers (LR44)</t>
   </si>
   <si>
-    <t>Digital Power supply</t>
-  </si>
-  <si>
     <t>Raspberry Pi 3</t>
   </si>
   <si>
-    <t>Walmart?</t>
-  </si>
-  <si>
-    <t>Lowes?</t>
-  </si>
-  <si>
     <t>AWG/Gauge Measurer</t>
   </si>
   <si>
@@ -134,10 +104,22 @@
     <t>http://www.harborfreight.com/8-in-5-speed-bench-drill-press-62520.html</t>
   </si>
   <si>
-    <t>X-Acto Knife</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Dremel</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Dremel-4000-2-30-120-Volt-Variable/dp/B002L3RUVG/ref=sr_1_2?s=power-hand-tools&amp;ie=UTF8&amp;qid=1474860416&amp;sr=1-2&amp;keywords=dremel</t>
+  </si>
+  <si>
+    <t>Paper Printer</t>
+  </si>
+  <si>
+    <t>Label Maker Tape</t>
   </si>
 </sst>
 </file>
@@ -532,21 +514,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="35.77734375" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -555,7 +537,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -572,227 +554,181 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>4.95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>59.99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>15.95</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>4.95</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>59.99</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>69.989999999999995</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
+      <c r="D18" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1"/>
-    <hyperlink ref="E14" r:id="rId2"/>
-    <hyperlink ref="E13" r:id="rId3"/>
+    <hyperlink ref="E9" r:id="rId1"/>
+    <hyperlink ref="E15" r:id="rId2"/>
+    <hyperlink ref="E16" r:id="rId3"/>
+    <hyperlink ref="E17" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>